--- a/HSA EXP VIVOS.xlsx
+++ b/HSA EXP VIVOS.xlsx
@@ -5,34 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\HSA-VISTA-GENERAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD85C300-2210-4AD8-9B04-F6FB7CC1830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388F4D5A-C448-47AE-AD40-D358B29816D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId1"/>
-    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId2"/>
-    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId3"/>
-    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId4"/>
-    <sheet name="JUAN DAVID OSPINA" sheetId="5" r:id="rId5"/>
-    <sheet name="JULIANA NUÑEZ" sheetId="6" r:id="rId6"/>
-    <sheet name="LAURA ORTEGON" sheetId="7" r:id="rId7"/>
-    <sheet name="LUISA CUCHIBAQUE" sheetId="8" r:id="rId8"/>
-    <sheet name="MIGUEL CALDERON" sheetId="9" r:id="rId9"/>
-    <sheet name="MONICA PARDO" sheetId="10" r:id="rId10"/>
-    <sheet name="RUBÉN MARTINEZ" sheetId="11" r:id="rId11"/>
-    <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId12"/>
-    <sheet name="STEPHANI GUERRERO" sheetId="13" r:id="rId13"/>
+    <sheet name="HSA" sheetId="14" r:id="rId1"/>
+    <sheet name="ANDREA TOBAR" sheetId="1" r:id="rId2"/>
+    <sheet name="ANYI AGUIRRE" sheetId="2" r:id="rId3"/>
+    <sheet name="GENESIS CUELLO" sheetId="3" r:id="rId4"/>
+    <sheet name="JHON TRUJILLO" sheetId="4" r:id="rId5"/>
+    <sheet name="JUAN DAVID OSPINA" sheetId="5" r:id="rId6"/>
+    <sheet name="JULIANA NUÑEZ" sheetId="6" r:id="rId7"/>
+    <sheet name="LAURA ORTEGON" sheetId="7" r:id="rId8"/>
+    <sheet name="LUISA CUCHIBAQUE" sheetId="8" r:id="rId9"/>
+    <sheet name="MIGUEL CALDERON" sheetId="9" r:id="rId10"/>
+    <sheet name="MONICA PARDO" sheetId="10" r:id="rId11"/>
+    <sheet name="RUBÉN MARTINEZ" sheetId="11" r:id="rId12"/>
+    <sheet name="SHANNERY CHAPARRO" sheetId="12" r:id="rId13"/>
+    <sheet name="STEPHANI GUERRERO" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="417">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1632,7 +1633,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1663,8 +1664,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1711,12 +1718,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1756,6 +1817,62 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2059,10 +2176,2865 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4C0F4D-8787-4B71-9E88-3FE8A0D8F338}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="O62" sqref="O62"/>
+      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="113.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="86.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="243.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="213.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="60" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.5703125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45693</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45719</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5">
+        <v>45715</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O2" s="5">
+        <v>45713</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45638</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45698</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45638</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="10">
+        <v>46733</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="10">
+        <v>45720</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O4" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10">
+        <v>44861</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45957</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10">
+        <v>45705</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O5" s="5">
+        <v>45706</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45720</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="13">
+        <v>46816</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="13">
+        <v>45721</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="13">
+        <v>45721</v>
+      </c>
+      <c r="O6" s="13">
+        <v>45721</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45541</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="7">
+        <v>46636</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="7">
+        <v>45692</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O7" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45362</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="7">
+        <v>46285</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="7">
+        <v>45679</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O8" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10">
+        <v>45086</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="10">
+        <v>46164</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="10">
+        <v>45721</v>
+      </c>
+      <c r="O9" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7">
+        <v>45691</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="7">
+        <v>45694</v>
+      </c>
+      <c r="O10" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7">
+        <v>45705</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O11" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45162</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="5">
+        <v>46164</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" s="5">
+        <v>45721</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O12" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="10">
+        <v>45100</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="10">
+        <v>46172</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O13" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="10">
+        <v>45266</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="10">
+        <v>46232</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="10">
+        <v>45714</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O14" s="5">
+        <v>45715</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10">
+        <v>45684</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="10">
+        <v>46710</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="10">
+        <v>45716</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N15" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O15" s="5">
+        <v>45685</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44203</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="19">
+        <v>45298</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="19">
+        <v>45698</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O16" s="20">
+        <v>45666</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44627</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="19">
+        <v>45701</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="19">
+        <v>45708</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N17" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O17" s="20">
+        <v>45708</v>
+      </c>
+      <c r="P17" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="19">
+        <v>45266</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="19">
+        <v>46174</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="19">
+        <v>45714</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O18" s="20">
+        <v>45715</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>45638</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" s="5">
+        <v>46733</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="5">
+        <v>45665</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="N19" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O19" s="22">
+        <v>45691</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45049</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" s="7">
+        <v>46145</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="7">
+        <v>45665</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N20" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O20" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10">
+        <v>45518</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="10">
+        <v>46613</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="10">
+        <v>45677</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="N21" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O21" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45684</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I22" s="10">
+        <v>46779</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="10">
+        <v>45694</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O22" s="5">
+        <v>45688</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="10">
+        <v>45709</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="10">
+        <v>46804</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="10">
+        <v>45712</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N23" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O23" s="5">
+        <v>45713</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>45264</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="5">
+        <v>46315</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="5">
+        <v>45670</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N24" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O24" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
+        <v>45161</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="7">
+        <v>46257</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7">
+        <v>45328</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="N25" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O25" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="10">
+        <v>45070</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="10">
+        <v>46166</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="10">
+        <v>45700</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="10">
+        <v>45722</v>
+      </c>
+      <c r="O26" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5">
+        <v>45246</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="5">
+        <v>45694</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O27" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="5">
+        <v>45246</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I28" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="5">
+        <v>45708</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="N28" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O28" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="25">
+        <v>45653</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="25">
+        <v>46549</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="25">
+        <v>45712</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="N29" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O29" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10">
+        <v>45541</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="10">
+        <v>46636</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="10">
+        <v>45705</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="N30" s="10">
+        <v>45707</v>
+      </c>
+      <c r="O30" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="10">
+        <v>45667</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="L31" s="10">
+        <v>45694</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="N31" s="10">
+        <v>45715</v>
+      </c>
+      <c r="O31" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="27">
+        <v>46324</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" s="27">
+        <v>45715</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="N32" s="27">
+        <v>45722</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q32" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="7">
+        <v>45715</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N33" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O33" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="5">
+        <v>45466</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45466</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="5">
+        <v>45673</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N34" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O34" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="25">
+        <v>45665</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L35" s="25">
+        <v>45700</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="N35" s="7">
+        <v>45722</v>
+      </c>
+      <c r="O35" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="5">
+        <v>45505</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I36" s="5">
+        <v>46395</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="5">
+        <v>45720</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="N36" s="5">
+        <v>45721</v>
+      </c>
+      <c r="O36" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="5">
+        <v>43999</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" s="5">
+        <v>44967</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L37" s="5">
+        <v>45615</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="N37" s="5">
+        <v>45715</v>
+      </c>
+      <c r="O37" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" s="7">
+        <v>46232</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="7">
+        <v>45693</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="N38" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O38" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45790</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="5">
+        <v>45701</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="N39" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O39" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="7">
+        <v>45490</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N40" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O40" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45343</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="5">
+        <v>46385</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" s="5">
+        <v>45434</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N41" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O41" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="7">
+        <v>45434</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N42" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O42" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45343</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="5">
+        <v>46385</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="5">
+        <v>45434</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N43" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O43" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="7">
+        <v>45343</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="7">
+        <v>46385</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L44" s="7">
+        <v>45434</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="N44" s="7">
+        <v>45715</v>
+      </c>
+      <c r="O44" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="28">
+        <v>45672</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45" s="30">
+        <v>45687</v>
+      </c>
+      <c r="M45" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="N45" s="30">
+        <v>45705</v>
+      </c>
+      <c r="O45" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q45" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="28">
+        <v>45700</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L46" s="30">
+        <v>45722</v>
+      </c>
+      <c r="M46" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="N46" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O46" s="5">
+        <v>45722</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q46" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="28">
+        <v>45706</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L47" s="30">
+        <v>45721</v>
+      </c>
+      <c r="M47" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="N47" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O47" s="5">
+        <v>45722</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q47" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="5">
+        <v>44861</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="5">
+        <v>45729</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="L48" s="5">
+        <v>46003</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="N48" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O48" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="7">
+        <v>45440</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="I49" s="7">
+        <v>46535</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="7">
+        <v>45714</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="N49" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O49" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="7">
+        <v>45715</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="7">
+        <v>46992</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="7">
+        <v>45720</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N50" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O50" s="5">
+        <v>45715</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="7">
+        <v>45672</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" s="7">
+        <v>46155</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L51" s="31">
+        <v>45707</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N51" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O51" s="5">
+        <v>45691</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="7">
+        <v>45266</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="7">
+        <v>46362</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="31">
+        <v>45653</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="N52" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O52" s="5">
+        <v>45706</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="13">
+        <v>45700</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="I53" s="13">
+        <v>46795</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L53" s="13">
+        <v>45700</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="N53" s="5">
+        <v>45722</v>
+      </c>
+      <c r="O53" s="13">
+        <v>45701</v>
+      </c>
+      <c r="P53" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q53" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="J2" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2122,216 +5094,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
+        <v>310</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>311</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>22</v>
+        <v>313</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>314</v>
       </c>
       <c r="I2" s="5">
-        <v>45719</v>
+        <v>46395</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="7">
-        <v>46733</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="6" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="10">
-        <v>46733</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="10">
-        <v>45957</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2339,7 +5152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
@@ -2834,7 +5647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -2958,7 +5771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -3188,7 +6001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -3525,6 +6338,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="17" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45719</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="7">
+        <v>46733</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="10">
+        <v>46733</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45957</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
@@ -3807,7 +6901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -4196,7 +7290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -4585,7 +7679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -4921,7 +8015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
@@ -5257,7 +8351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -5434,7 +8528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
@@ -5609,128 +8703,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q2"/>
-  <sheetViews>
-    <sheetView topLeftCell="J2" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="17" width="30.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="I2" s="5">
-        <v>46395</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/HSA EXP VIVOS.xlsx
+++ b/HSA EXP VIVOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateo.casas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Downloads\HSA EXPEDEDIENTES VIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B196DA-2940-454C-A278-DC6564BE5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49944888-83ED-4DFE-8778-8F559BCE0707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HSA" sheetId="11" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <sheet name="STEPHANI GUERRERO" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HSA!$A$1:$Q$40</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="352">
   <si>
     <t>EXPEDIENTE</t>
   </si>
@@ -1130,41 +1130,7 @@
     <t>LAURA ORTEGON</t>
   </si>
   <si>
-    <t>CNE-E-DG-2025-000141</t>
-  </si>
-  <si>
-    <t>SOLICITUD DE REVOCATORIA DE INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO, EL SEÑOR JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025</t>
-  </si>
-  <si>
-    <t>PUTUMAYO</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO CABRERA</t>
-  </si>
-  <si>
-    <t>REVOCATORIA</t>
-  </si>
-  <si>
-    <t>19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 - RESOLUCIÓN No 00554 ESTARSE A LO RESUELTO EN LAS RESOLUCIONES No 00267 y 00479  DE 2025 QUE DECIDIERON NO REVOCAR LA INSCRIPCIÓN DE LA CANDIDATURA  A LA GOGERNACIÓN DE JHON GABRIEL MOLINA ACOSTA - NOTIFICADA EN AUDIENCIA DEL 12/02/2025
- 06/02/2025 - RESOLUCIÓN 00479 POR MEDIO DE LA CUAL NO SE REPONE LA RESOLUCIÓN 00262 DEL 29 DE ENERO DE 2025 
-29/01/2025 - RESOLUCIÓN No 0262 - NO SE REVOCA LA INSCRIPCIÓN DEL CANDIDATO A LA GOBERNACIÓN DE PUTUMAYO,  JOHN GABRIEL MOLINA ACOSTA, PARA LAS ELECCIONES ATIPICAS DEL 2025
-15/01/2025- AUTO 009- CORRE TRASLADO DE PRUEBAS
-10/01/2025- AUTO NO 002- CORRIGE AUTO 001 Y COMUNICA A LAS AGRUPACIONES POLÍTICAS AICO, MAIZ Y PARTIDO CONSERVADOR
-08/01/2025 AUTO NO. 001 DEL 8 DE ENERO DE 2025 AVOCA CONOCIMIENTO Y SOLICITA PRUEBA</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
-  </si>
-  <si>
-    <t>06/03/2025 - PENDIENTE DE ARCHIVO  ENTREGA A LUISA CUCHIBAQUE 
-28/02/2025 SIGUE EN ESPERA DE OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-19/02/2025 SE EXPIDIO OFICIO 053 RESPECTO A RESPUESTA A ACCIÓN DE TUTELA
-12/02/2025 NOTIFICADA EN AUDIENCIA
-06/02/2025 PENDIENTE DE DECIDIR RESOLUCIÓN DE ATENERSE A LO RESUELTO 
-SE RECIBIÓ RECURSO DE REPOSICIÓN EL DÍA 30 DE ENERO DE 2025, ACTUALMENTE SE ESTÁ RESOLVIENDO RECURSO
-23/01/2025 CORRIENDO TERMINOS
-CORRIENDO TÉRMINOS Y EN ESPERA DE COMUNICACIONES</t>
   </si>
   <si>
     <t>CNE-E-DG-2024-011211</t>
@@ -1440,7 +1406,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1642,7 +1608,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,13 +1621,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1636,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,16 +1657,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,19 +1678,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2036,12 +2002,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3713,97 +3679,97 @@
       </c>
     </row>
     <row r="32" spans="1:17" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="30">
-        <v>45665</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45505</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="E32" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="I32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="11" t="s">
+      <c r="F32" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="L32" s="30">
-        <v>45700</v>
-      </c>
-      <c r="M32" s="11" t="s">
+      <c r="H32" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I32" s="7">
+        <v>46395</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N32" s="9">
-        <v>45722</v>
+      <c r="K32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="7">
+        <v>45720</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N32" s="7">
+        <v>45754</v>
       </c>
       <c r="O32" s="7">
         <v>45691</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q32" s="11" t="s">
+      <c r="P32" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q32" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>295</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="C33" s="7">
-        <v>45505</v>
+        <v>43999</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>298</v>
+        <v>144</v>
       </c>
       <c r="I33" s="7">
-        <v>46395</v>
+        <v>44967</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L33" s="7">
-        <v>45720</v>
+        <v>45615</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N33" s="7">
         <v>45754</v>
@@ -3812,51 +3778,51 @@
         <v>45691</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>302</v>
+    <row r="34" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="7">
-        <v>43999</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="9">
+        <v>45266</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="9">
+        <v>46232</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="7">
-        <v>44967</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="9">
+        <v>45693</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" s="7">
-        <v>45615</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="N34" s="7">
         <v>45754</v>
@@ -3864,52 +3830,52 @@
       <c r="O34" s="7">
         <v>45691</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="P34" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7">
+        <v>44861</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="7">
+        <v>45790</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="Q34" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="K35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="7">
+        <v>45720</v>
+      </c>
+      <c r="M35" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="9">
-        <v>45266</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="9">
-        <v>46232</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="9">
-        <v>45693</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>314</v>
       </c>
       <c r="N35" s="7">
         <v>45754</v>
@@ -3917,16 +3883,16 @@
       <c r="O35" s="7">
         <v>45691</v>
       </c>
-      <c r="P35" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q35" s="8" t="s">
+      <c r="P35" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>18</v>
@@ -3935,10 +3901,10 @@
         <v>44861</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>316</v>
+        <v>56</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>21</v>
@@ -3947,22 +3913,22 @@
         <v>58</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="I36" s="7">
-        <v>45790</v>
+        <v>45729</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L36" s="7">
-        <v>45720</v>
+        <v>45748</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N36" s="7">
         <v>45754</v>
@@ -3971,279 +3937,226 @@
         <v>45691</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="9">
+        <v>45440</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="7">
-        <v>44861</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="7">
-        <v>45729</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="K37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="7">
-        <v>45748</v>
-      </c>
-      <c r="M37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>331</v>
       </c>
+      <c r="G37" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" s="9">
+        <v>46535</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="9">
+        <v>45714</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="N37" s="7">
-        <v>45754</v>
+        <v>45750</v>
       </c>
       <c r="O37" s="7">
         <v>45691</v>
       </c>
-      <c r="P37" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q37" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="P37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="9">
-        <v>45440</v>
+        <v>45715</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9">
-        <v>46535</v>
+        <v>46992</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>25</v>
       </c>
       <c r="L38" s="9">
-        <v>45714</v>
+        <v>45720</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" s="7">
-        <v>45750</v>
+        <v>45754</v>
       </c>
       <c r="O38" s="7">
-        <v>45691</v>
+        <v>45715</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q38" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="9">
-        <v>45715</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="E39" s="8" t="s">
+      <c r="B39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="12">
+        <v>45709</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="9">
-        <v>46992</v>
-      </c>
-      <c r="J39" s="8" t="s">
+      <c r="I39" s="12">
+        <v>46804</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="9">
-        <v>45720</v>
-      </c>
-      <c r="M39" s="8" t="s">
+      <c r="L39" s="12">
+        <v>45735</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>350</v>
       </c>
       <c r="N39" s="7">
         <v>45754</v>
       </c>
       <c r="O39" s="7">
-        <v>45715</v>
+        <v>45713</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="12">
-        <v>45709</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="12">
-        <v>46804</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="K40" s="10" t="s">
+    </row>
+    <row r="40" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="15">
+        <v>45700</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" s="15">
+        <v>46795</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="12">
-        <v>45735</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>357</v>
+      <c r="L40" s="15">
+        <v>45744</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>319</v>
       </c>
       <c r="N40" s="7">
         <v>45754</v>
       </c>
-      <c r="O40" s="7">
-        <v>45713</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q40" s="10" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="15">
-        <v>45700</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="E41" s="14" t="s">
+      <c r="O40" s="15">
+        <v>45701</v>
+      </c>
+      <c r="P40" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I41" s="15">
-        <v>46795</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="K41" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" s="15">
-        <v>45744</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="N41" s="7">
-        <v>45754</v>
-      </c>
-      <c r="O41" s="15">
-        <v>45701</v>
-      </c>
-      <c r="P41" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q40" s="14" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q41" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
+  <autoFilter ref="A1:Q40" xr:uid="{868CBA12-E8F6-468A-9E1A-12215A2C5AF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4315,36 +4228,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="204" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I2" s="7">
         <v>46795</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
@@ -4353,16 +4266,16 @@
         <v>184</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>43</v>
@@ -4441,7 +4354,7 @@
     </row>
     <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
@@ -4453,7 +4366,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>21</v>
@@ -4468,7 +4381,7 @@
         <v>45729</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>88</v>
@@ -4477,7 +4390,7 @@
         <v>40</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>28</v>
@@ -4486,42 +4399,42 @@
         <v>42</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I3" s="9">
         <v>46535</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>25</v>
@@ -4530,16 +4443,16 @@
         <v>146</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>43</v>
@@ -4547,7 +4460,7 @@
     </row>
     <row r="4" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
@@ -4556,16 +4469,16 @@
         <v>148</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>38</v>
@@ -4574,7 +4487,7 @@
         <v>46992</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>25</v>
@@ -4583,7 +4496,7 @@
         <v>51</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>28</v>
@@ -4592,7 +4505,7 @@
         <v>148</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>43</v>
@@ -4600,25 +4513,25 @@
     </row>
     <row r="5" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>212</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>38</v>
@@ -4627,7 +4540,7 @@
         <v>46804</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>25</v>
@@ -4636,7 +4549,7 @@
         <v>70</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>28</v>
@@ -4645,10 +4558,10 @@
         <v>29</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4722,7 +4635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -4934,7 +4847,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="318.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>64</v>
       </c>
@@ -5341,7 +5254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="395.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>110</v>
       </c>
@@ -5553,7 +5466,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="280.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>140</v>
       </c>
@@ -5606,7 +5519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>150</v>
       </c>
@@ -5659,7 +5572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="204" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>160</v>
       </c>
@@ -5995,7 +5908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>201</v>
       </c>
@@ -6048,7 +5961,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>209</v>
       </c>
@@ -6101,7 +6014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="102" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>217</v>
       </c>
@@ -6154,7 +6067,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="369.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>225</v>
       </c>
@@ -6490,7 +6403,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="293.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>266</v>
       </c>
@@ -6550,11 +6463,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6614,7 +6525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="306" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>274</v>
       </c>
@@ -6664,59 +6575,6 @@
         <v>284</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q3" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6791,36 +6649,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="306" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I2" s="7">
         <v>46395</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>25</v>
@@ -6829,7 +6687,7 @@
         <v>51</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>28</v>
@@ -6838,7 +6696,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>43</v>
@@ -6915,24 +6773,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="408" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>58</v>
@@ -6944,16 +6802,16 @@
         <v>44967</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>88</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>28</v>
@@ -6962,7 +6820,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>43</v>
@@ -6970,7 +6828,7 @@
     </row>
     <row r="3" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>18</v>
@@ -6979,7 +6837,7 @@
         <v>141</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>21</v>
@@ -6997,7 +6855,7 @@
         <v>46232</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>25</v>
@@ -7006,7 +6864,7 @@
         <v>19</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="N3" s="7" t="s">
         <v>28</v>
@@ -7015,7 +6873,7 @@
         <v>42</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>43</v>
@@ -7023,7 +6881,7 @@
     </row>
     <row r="4" spans="1:17" ht="127.5" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>18</v>
@@ -7032,7 +6890,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>21</v>
@@ -7050,7 +6908,7 @@
         <v>45790</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>25</v>
@@ -7059,7 +6917,7 @@
         <v>51</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>28</v>
@@ -7068,7 +6926,7 @@
         <v>42</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>43</v>
